--- a/storage/template/school-importing-template.xlsx
+++ b/storage/template/school-importing-template.xlsx
@@ -138,7 +138,7 @@
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>สพฐ</t>
+    <t>สำนักงานคณะกรรมการการศึกษาขั้นพื้นฐาน</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,8 +194,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,13 +253,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -269,16 +331,43 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -442,13 +531,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -547,10 +630,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -805,13 +888,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -1124,10 +1201,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1381,7 +1458,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1390,7 +1467,7 @@
     <col min="1" max="1" width="33.6719" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
     <col min="3" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30.6719" style="1" customWidth="1"/>
     <col min="11" max="12" width="14.5" style="1" customWidth="1"/>
     <col min="13" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
@@ -1466,6 +1543,118 @@
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/storage/template/school-importing-template.xlsx
+++ b/storage/template/school-importing-template.xlsx
@@ -1,40 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookViews>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author/>
+    <author>Imported Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0">
       <text>
-        <t xml:space="preserve">** ไม่ต้องใส่คำว่า โรงเรียนนำหน้า
-	-Nuttasak Tawan</t>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Imported Author:
+** ไม่ต้องใส่คำว่า โรงเรียนนำหน้า</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="K1">
+    <comment ref="K1" authorId="0">
       <text>
-        <t xml:space="preserve">Value: 1 สถานะใช้งาน, 0 ระงับการใช้งาน
-Default: 1
-	-Nuttasak Tawan</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A1">
-      <text>
-        <t xml:space="preserve">Optional: ใส่หรือไม่ใส่ก็ได้
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="Helvetica Neue"/>
+          </rPr>
+          <t>Imported Author:
 Value: 1 สถานะใช้งาน, 0 ระงับการใช้งาน
 Default: 1
 	-Nuttasak Tawan</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -42,13 +49,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>ชื่อโรงเรียน</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
       <t>*</t>
     </r>
   </si>
@@ -72,10 +88,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>ชื่อจังหวัด</t>
     </r>
     <r>
-      <rPr/>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Verdana"/>
+      </rPr>
       <t>*</t>
     </r>
   </si>
@@ -90,6 +115,9 @@
   </si>
   <si>
     <t>สามเสนวิทยาลัย</t>
+  </si>
+  <si>
+    <t>11/11</t>
   </si>
   <si>
     <t>สุขุมวิท 1</t>
@@ -113,178 +141,1458 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FFFFFFFF"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
+      <sz val="13"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF38761D"/>
-        <bgColor rgb="FF38761D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="6">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color indexed="11"/>
       </right>
+      <top/>
       <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
+        <color indexed="11"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff38761d"/>
+      <rgbColor rgb="ffaaaaaa"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="A7A7A7"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="535353"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="FF00FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="38000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="Cambria"/>
+            <a:ea typeface="Cambria"/>
+            <a:cs typeface="Cambria"/>
+            <a:sym typeface="Cambria"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
+  </a:objectDefaults>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="33.71"/>
-    <col customWidth="1" min="2" max="2" width="17.29"/>
-    <col customWidth="1" min="5" max="5" width="21.14"/>
-    <col customWidth="1" min="10" max="10" width="16.29"/>
+    <col min="1" max="1" width="33.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1719" style="1" customWidth="1"/>
+    <col min="6" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.3" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" ht="13.65" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="B2" s="3">
-        <v>43780.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="I2" s="5">
-        <v>10400.0</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="H2" t="s" s="5">
         <v>17</v>
       </c>
+      <c r="I2" s="8">
+        <v>10400</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/storage/template/school-importing-template.xlsx
+++ b/storage/template/school-importing-template.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_81E8B0FE38E28F01AA3564782D074E64CFFAB842" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AC527C8-3A04-4970-B8B6-23DB056C1B2C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Imported Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -25,11 +37,14 @@
             <rFont val="Helvetica Neue"/>
           </rPr>
           <t>Imported Author:
-** ไม่ต้องใส่คำว่า โรงเรียนนำหน้า</t>
+Optional: ใส่หรือไม่ใส่ก็ได้
+Value: 1 สถานะใช้งาน, 0 ระงับการใช้งาน
+Default: 1
+	-Nuttasak Tawan</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <r>
       <rPr>
@@ -111,10 +126,13 @@
     <t>สังกัดของโรงเรียน</t>
   </si>
   <si>
+    <t>สถานะ</t>
+  </si>
+  <si>
     <t>หมายเหตุ</t>
   </si>
   <si>
-    <t>สามเสนวิทยาลัย</t>
+    <t>สกลราชวิทยานุกูล</t>
   </si>
   <si>
     <t>11/11</t>
@@ -135,29 +153,16 @@
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>สำนักงานคณะกรรมการการศึกษาขั้นพื้นฐาน</t>
+    <t>สพฐ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -191,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -243,92 +248,106 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff38761d"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF38761D"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,7 +479,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -536,7 +555,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -555,7 +574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -585,7 +604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -611,7 +630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,7 +682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,7 +708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +760,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +786,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +812,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -806,9 +825,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -823,7 +848,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -831,7 +856,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -850,7 +875,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,7 +901,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -902,7 +927,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -928,7 +953,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -954,7 +979,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,7 +1005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,7 +1031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,7 +1057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,7 +1083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,7 +1109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1097,9 +1122,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1113,7 +1144,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1132,7 +1163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,7 +1193,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,7 +1219,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1214,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1240,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1383,216 +1414,121 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:IV2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="33.6719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.1719" style="1" customWidth="1"/>
-    <col min="6" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
-    <col min="12" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
+    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.3" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="3">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="3">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="3">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="4">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="13.65" customHeight="1">
-      <c r="A2" t="s" s="5">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="6">
+    <row r="2" spans="1:12" ht="13.7" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7">
+      <c r="B2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="5">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="5">
+      <c r="D2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s" s="5">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s" s="5">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s" s="5">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8">
-        <v>10400</v>
-      </c>
-      <c r="J2" t="s" s="5">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" ht="13.65" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" ht="13.65" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" ht="13.65" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" ht="13.65" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" ht="13.65" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" ht="13.65" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" ht="13.65" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" ht="13.65" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I2" s="6">
+        <v>102800</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/template/school-importing-template.xlsx
+++ b/storage/template/school-importing-template.xlsx
@@ -1,34 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22307"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_81E8B0FE38E28F01AA3564782D074E64CFFAB842" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AC527C8-3A04-4970-B8B6-23DB056C1B2C}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcCompleted="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Imported Author</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -44,27 +32,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color indexed="8"/>
-            <rFont val="Helvetica Neue"/>
-          </rPr>
-          <t>Imported Author:
-Value: 1 สถานะใช้งาน, 0 ระงับการใช้งาน
-Default: 1
-	-Nuttasak Tawan</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -126,9 +99,6 @@
     <t>สังกัดของโรงเรียน</t>
   </si>
   <si>
-    <t>สถานะ</t>
-  </si>
-  <si>
     <t>หมายเหตุ</t>
   </si>
   <si>
@@ -153,16 +123,29 @@
     <t>กรุงเทพมหานคร</t>
   </si>
   <si>
-    <t>สพฐ</t>
+    <t>สำนักงานคณะกรรมการการศึกษาขั้นพื้นฐาน</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -182,7 +165,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -195,8 +178,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -248,106 +237,151 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FF38761D"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff38761d"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -478,13 +512,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -555,7 +583,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -574,19 +602,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -604,7 +632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -630,7 +658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -656,7 +684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -682,7 +710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -708,7 +736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -734,7 +762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,7 +788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -786,7 +814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -812,7 +840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,15 +853,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -847,16 +869,10 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -875,7 +891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -901,7 +917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,7 +969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,7 +995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,7 +1021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,7 +1047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,7 +1073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,7 +1099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,7 +1125,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1122,15 +1138,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1144,7 +1154,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1163,19 +1173,19 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1193,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1219,7 +1229,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1245,7 +1255,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1281,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1307,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1333,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1359,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1385,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1411,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1414,121 +1424,214 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="14.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.28515625" style="1" customWidth="1"/>
-    <col min="11" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.6719" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.3516" style="1" customWidth="1"/>
+    <col min="3" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.2969" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5" style="1" customWidth="1"/>
+    <col min="12" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="16.350000000000001" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="16.35" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" ht="13.7" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="13.7" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="B2" t="s" s="5">
         <v>12</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s" s="5">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="6">
+        <v>10800</v>
+      </c>
+      <c r="J2" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="I2" s="6">
-        <v>102800</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+    </row>
+    <row r="3" ht="13.65" customHeight="1">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" ht="13.65" customHeight="1">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="13"/>
+    </row>
+    <row r="5" ht="13.65" customHeight="1">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" ht="13.65" customHeight="1">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="13"/>
+    </row>
+    <row r="7" ht="13.65" customHeight="1">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" ht="13.65" customHeight="1">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" ht="13.65" customHeight="1">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" ht="13.65" customHeight="1">
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>